--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_China_ADM_ITOM_IM.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_China_ADM_ITOM_IM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -422,6 +422,36 @@
   </si>
   <si>
     <t>SHPDBANK/SW 09900</t>
+  </si>
+  <si>
+    <t>jslupu8725284321</t>
+  </si>
+  <si>
+    <t>2197930773</t>
+  </si>
+  <si>
+    <t>dlxwdg0267678368</t>
+  </si>
+  <si>
+    <t>8151059897</t>
+  </si>
+  <si>
+    <t>jbwnxi1335392847</t>
+  </si>
+  <si>
+    <t>0157583641</t>
+  </si>
+  <si>
+    <t>ndsdxv6809403522</t>
+  </si>
+  <si>
+    <t>9782138408</t>
+  </si>
+  <si>
+    <t>drgsqy8730241202</t>
+  </si>
+  <si>
+    <t>3566976905</t>
   </si>
 </sst>
 </file>
@@ -431,7 +461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -480,6 +510,31 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -894,73 +949,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="28.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1234,7 +1289,7 @@
         <v>113</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>89</v>
@@ -1348,8 +1403,8 @@
       <c r="AW2" s="20">
         <v>1063543055473420</v>
       </c>
-      <c r="AX2" s="16">
-        <v>2314143222</v>
+      <c r="AX2" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>103</v>
@@ -1451,7 +1506,7 @@
         <v>113</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>89</v>
@@ -1565,8 +1620,8 @@
       <c r="AW3" s="20">
         <v>1063543055473420</v>
       </c>
-      <c r="AX3" s="16">
-        <v>2314143222</v>
+      <c r="AX3" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>103</v>
@@ -1668,7 +1723,7 @@
         <v>113</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>89</v>
@@ -1781,8 +1836,8 @@
       <c r="AW4" s="20">
         <v>1063543055473420</v>
       </c>
-      <c r="AX4" s="16">
-        <v>2314143222</v>
+      <c r="AX4" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>103</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_China_ADM_ITOM_IM.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_China_ADM_ITOM_IM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="143">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>3566976905</t>
+  </si>
+  <si>
+    <t>vfpnoi7818302887</t>
+  </si>
+  <si>
+    <t>4771544972</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -510,6 +516,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1289,7 +1300,7 @@
         <v>113</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>89</v>
@@ -1404,7 +1415,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>103</v>
@@ -1506,7 +1517,7 @@
         <v>113</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>89</v>
@@ -1621,7 +1632,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX3" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>103</v>
@@ -1723,7 +1734,7 @@
         <v>113</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>89</v>
@@ -1837,7 +1848,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX4" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>103</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_China_ADM_ITOM_IM.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_China_ADM_ITOM_IM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>4771544972</t>
+  </si>
+  <si>
+    <t>ksdtzr0335058902</t>
+  </si>
+  <si>
+    <t>5057345332</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -516,6 +522,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1300,7 +1311,7 @@
         <v>113</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>89</v>
@@ -1415,7 +1426,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>103</v>
@@ -1517,7 +1528,7 @@
         <v>113</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>89</v>
@@ -1632,7 +1643,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX3" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>103</v>
@@ -1734,7 +1745,7 @@
         <v>113</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>89</v>
@@ -1848,7 +1859,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX4" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>103</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_China_ADM_ITOM_IM.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_China_ADM_ITOM_IM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="147">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>5057345332</t>
+  </si>
+  <si>
+    <t>iyhngv3800593067</t>
+  </si>
+  <si>
+    <t>5467862562</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -522,6 +528,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1311,7 +1322,7 @@
         <v>113</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>89</v>
@@ -1426,7 +1437,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>103</v>
@@ -1528,7 +1539,7 @@
         <v>113</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>89</v>
@@ -1643,7 +1654,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX3" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>103</v>
@@ -1745,7 +1756,7 @@
         <v>113</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>89</v>
@@ -1859,7 +1870,7 @@
         <v>1063543055473420</v>
       </c>
       <c r="AX4" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>103</v>
